--- a/data/blueprints/library/test/quickfort/list/all_modes_single_sheet.xlsx
+++ b/data/blueprints/library/test/quickfort/list/all_modes_single_sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>#dig hidden()</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>#query hidden()</t>
+  </si>
+  <si>
+    <t>#config hidden()</t>
   </si>
   <si>
     <t>#meta hidden()</t>
@@ -49,8 +52,13 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,7 +295,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -334,6 +342,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/blueprints/library/test/quickfort/list/all_modes_single_sheet.xlsx
+++ b/data/blueprints/library/test/quickfort/list/all_modes_single_sheet.xlsx
@@ -31,16 +31,16 @@
     <t>#config hidden()</t>
   </si>
   <si>
+    <t>#ignore</t>
+  </si>
+  <si>
+    <t>#aliases</t>
+  </si>
+  <si>
     <t>#meta hidden()</t>
   </si>
   <si>
     <t>#notes hidden()</t>
-  </si>
-  <si>
-    <t>#ignore</t>
-  </si>
-  <si>
-    <t>#aliases</t>
   </si>
 </sst>
 </file>

--- a/data/blueprints/library/test/quickfort/list/all_modes_single_sheet.xlsx
+++ b/data/blueprints/library/test/quickfort/list/all_modes_single_sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>#dig hidden()</t>
   </si>
@@ -28,16 +28,19 @@
     <t>#query hidden()</t>
   </si>
   <si>
+    <t>#config hidden()</t>
+  </si>
+  <si>
+    <t>#ignore</t>
+  </si>
+  <si>
+    <t>#aliases</t>
+  </si>
+  <si>
     <t>#meta hidden()</t>
   </si>
   <si>
     <t>#notes hidden()</t>
-  </si>
-  <si>
-    <t>#ignore</t>
-  </si>
-  <si>
-    <t>#aliases</t>
   </si>
 </sst>
 </file>
@@ -49,8 +52,13 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,7 +295,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -334,6 +342,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
